--- a/public/BaoCaoTonKho.xlsx
+++ b/public/BaoCaoTonKho.xlsx
@@ -15,15 +15,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+  <si>
+    <t>Địa chỉ........</t>
+  </si>
   <si>
     <t>Đơn vị.......</t>
   </si>
   <si>
-    <t>Địa chỉ........</t>
-  </si>
-  <si>
     <t>BÁO CÁO TỔNG HỢP TỒN KHO</t>
+  </si>
+  <si>
+    <t>KHO........</t>
+  </si>
+  <si>
+    <t>TỪ NGÀY...... ĐẾN NGÀY.......</t>
+  </si>
+  <si>
+    <t>TỒN ĐẦU</t>
+  </si>
+  <si>
+    <t>NHẬP</t>
+  </si>
+  <si>
+    <t>XUẤT</t>
+  </si>
+  <si>
+    <t>TỒN CUỐI</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>MÃ SỐ</t>
+  </si>
+  <si>
+    <t>TÊN SẢN PHẨM</t>
+  </si>
+  <si>
+    <t>ĐVT</t>
+  </si>
+  <si>
+    <t>SỐ LƯỢNG</t>
+  </si>
+  <si>
+    <t>TIỀN</t>
+  </si>
+  <si>
+    <t>Sơn Mastic Dẻo Kova MT-T</t>
+  </si>
+  <si>
+    <t>Kg</t>
+  </si>
+  <si>
+    <t>SƠN MASTIC DẺO KOVA 12312</t>
+  </si>
+  <si>
+    <t>Sơn Kova CN-05 chống nóng</t>
+  </si>
+  <si>
+    <t>Sơn jotaplast jotun 1122</t>
+  </si>
+  <si>
+    <t>Sơn Mastic chịu ẩm Kova SK6</t>
+  </si>
+  <si>
+    <t>SƠN MASTIC DẺO KOVA MT KT5T</t>
   </si>
 </sst>
 </file>
@@ -359,70 +416,183 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="29" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="2" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="16" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
-    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
-    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
-    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
-    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
-    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
-    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
-    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
-    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="C1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:12">
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E3"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4">
+    </row>
+    <row r="4" spans="1:12">
+      <c r="F4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10"/>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
         <v>4</v>
       </c>
-      <c r="E4">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
         <v>5</v>
       </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="E3:M4"/>
-  </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/public/BaoCaoTonKho.xlsx
+++ b/public/BaoCaoTonKho.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
   <si>
     <t>Địa chỉ........</t>
   </si>
@@ -81,6 +81,21 @@
   </si>
   <si>
     <t>SƠN MASTIC DẺO KOVA MT KT5T</t>
+  </si>
+  <si>
+    <t>TỔNG CỘNG</t>
+  </si>
+  <si>
+    <t>Ngày .... Tháng....Năm....</t>
+  </si>
+  <si>
+    <t>Người lập</t>
+  </si>
+  <si>
+    <t>Thủ kho</t>
+  </si>
+  <si>
+    <t>(Kí, Họ tên)</t>
   </si>
 </sst>
 </file>
@@ -416,7 +431,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +529,30 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8"/>
+      <c r="E8">
+        <v>2870</v>
+      </c>
+      <c r="F8">
+        <v>14000</v>
+      </c>
+      <c r="G8">
+        <v>1530</v>
+      </c>
+      <c r="H8">
+        <v>14000</v>
+      </c>
+      <c r="I8">
+        <v>250</v>
+      </c>
+      <c r="J8">
+        <v>21000</v>
+      </c>
+      <c r="K8">
+        <v>4150</v>
+      </c>
+      <c r="L8">
+        <v>14000</v>
+      </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9">
@@ -529,7 +567,30 @@
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9"/>
+      <c r="E9">
+        <v>3500</v>
+      </c>
+      <c r="F9">
+        <v>15000</v>
+      </c>
+      <c r="G9">
+        <v>1100</v>
+      </c>
+      <c r="H9">
+        <v>15000</v>
+      </c>
+      <c r="I9">
+        <v>152</v>
+      </c>
+      <c r="J9">
+        <v>22500</v>
+      </c>
+      <c r="K9">
+        <v>4448</v>
+      </c>
+      <c r="L9">
+        <v>15000</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10">
@@ -544,7 +605,30 @@
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10"/>
+      <c r="E10">
+        <v>4197</v>
+      </c>
+      <c r="F10">
+        <v>16000</v>
+      </c>
+      <c r="G10">
+        <v>2330</v>
+      </c>
+      <c r="H10">
+        <v>16000</v>
+      </c>
+      <c r="I10">
+        <v>751</v>
+      </c>
+      <c r="J10">
+        <v>24000</v>
+      </c>
+      <c r="K10">
+        <v>5776</v>
+      </c>
+      <c r="L10">
+        <v>16000</v>
+      </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11">
@@ -559,7 +643,30 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11"/>
+      <c r="E11">
+        <v>1430</v>
+      </c>
+      <c r="F11">
+        <v>14000</v>
+      </c>
+      <c r="G11">
+        <v>200</v>
+      </c>
+      <c r="H11">
+        <v>14000</v>
+      </c>
+      <c r="I11">
+        <v>130</v>
+      </c>
+      <c r="J11">
+        <v>21000</v>
+      </c>
+      <c r="K11">
+        <v>1500</v>
+      </c>
+      <c r="L11">
+        <v>14000</v>
+      </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12">
@@ -574,7 +681,30 @@
       <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12"/>
+      <c r="E12">
+        <v>6956</v>
+      </c>
+      <c r="F12">
+        <v>17000</v>
+      </c>
+      <c r="G12">
+        <v>750</v>
+      </c>
+      <c r="H12">
+        <v>17000</v>
+      </c>
+      <c r="I12">
+        <v>106</v>
+      </c>
+      <c r="J12">
+        <v>25500</v>
+      </c>
+      <c r="K12">
+        <v>7600</v>
+      </c>
+      <c r="L12">
+        <v>17000</v>
+      </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13">
@@ -590,6 +720,47 @@
         <v>16</v>
       </c>
       <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13">
+        <v>300</v>
+      </c>
+      <c r="H13">
+        <v>18000</v>
+      </c>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13">
+        <v>8500</v>
+      </c>
+      <c r="L13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/BaoCaoTonKho.xlsx
+++ b/public/BaoCaoTonKho.xlsx
@@ -542,13 +542,13 @@
         <v>14000</v>
       </c>
       <c r="I8">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="J8">
         <v>21000</v>
       </c>
       <c r="K8">
-        <v>4150</v>
+        <v>4090</v>
       </c>
       <c r="L8">
         <v>14000</v>
@@ -580,13 +580,13 @@
         <v>15000</v>
       </c>
       <c r="I9">
-        <v>152</v>
+        <v>222</v>
       </c>
       <c r="J9">
         <v>22500</v>
       </c>
       <c r="K9">
-        <v>4448</v>
+        <v>4378</v>
       </c>
       <c r="L9">
         <v>15000</v>
@@ -656,13 +656,13 @@
         <v>14000</v>
       </c>
       <c r="I11">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="J11">
         <v>21000</v>
       </c>
       <c r="K11">
-        <v>1500</v>
+        <v>1475</v>
       </c>
       <c r="L11">
         <v>14000</v>
@@ -694,13 +694,13 @@
         <v>17000</v>
       </c>
       <c r="I12">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="J12">
         <v>25500</v>
       </c>
       <c r="K12">
-        <v>7600</v>
+        <v>7560</v>
       </c>
       <c r="L12">
         <v>17000</v>
@@ -719,18 +719,26 @@
       <c r="D13" t="s">
         <v>16</v>
       </c>
-      <c r="E13"/>
-      <c r="F13"/>
+      <c r="E13">
+        <v>8200</v>
+      </c>
+      <c r="F13">
+        <v>18000</v>
+      </c>
       <c r="G13">
         <v>300</v>
       </c>
       <c r="H13">
         <v>18000</v>
       </c>
-      <c r="I13"/>
-      <c r="J13"/>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>27000</v>
+      </c>
       <c r="K13">
-        <v>8500</v>
+        <v>8440</v>
       </c>
       <c r="L13">
         <v>18000</v>
